--- a/IPL/Delhi Capitals/Alex Carey †.xlsx
+++ b/IPL/Delhi Capitals/Alex Carey †.xlsx
@@ -408,16 +408,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" t="str">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C3" t="str">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" t="str">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/IPL/Delhi Capitals/Alex Carey †.xlsx
+++ b/IPL/Delhi Capitals/Alex Carey †.xlsx
@@ -411,13 +411,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="str">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,13 +451,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="str">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
